--- a/Forms/Multiple Choice Forms/Session Metadata (Multiple Choice).xlsx
+++ b/Forms/Multiple Choice Forms/Session Metadata (Multiple Choice).xlsx
@@ -309,35 +309,7 @@
     <t xml:space="preserve">Access (AILCA)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'AILCA'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'AILCA'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one ax0oo06</t>
@@ -349,35 +321,7 @@
     <t xml:space="preserve">Access (AILLA)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'AILLA'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'AILLA'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one od7ot46</t>
@@ -389,35 +333,7 @@
     <t xml:space="preserve">Access (ANLA)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'ANLA'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'ANLA'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one mz5lu00</t>
@@ -429,35 +345,7 @@
     <t xml:space="preserve">Access (ELAR)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'ELAR'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'ELAR'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one ny0xh51</t>
@@ -469,35 +357,7 @@
     <t xml:space="preserve">Access (PARADISEC)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'PARADISEC'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'PARADISEC'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one af7kr58</t>
@@ -509,35 +369,7 @@
     <t xml:space="preserve">Access (TLA)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'TLA'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'TLA'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one dq4xo75</t>
@@ -549,35 +381,7 @@
     <t xml:space="preserve">Access (REAP)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'REAP'</t>
-    </r>
+    <t xml:space="preserve">${archive_repository} = 'REAP'</t>
   </si>
   <si>
     <t xml:space="preserve">select_one sh5hz08</t>
@@ -589,38 +393,10 @@
     <t xml:space="preserve">Access (Custom)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">archive_repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} = 'Custom'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">access_Explanation</t>
+    <t xml:space="preserve">${archive_repository} = 'Custom'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_explanation</t>
   </si>
   <si>
     <t xml:space="preserve">Access Explanation</t>
@@ -1329,7 +1105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1351,12 +1127,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1425,11 +1195,11 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.96"/>
   </cols>
@@ -2506,7 +2276,7 @@
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.35"/>
   </cols>
@@ -3867,7 +3637,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
